--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Dhh</t>
+  </si>
+  <si>
+    <t>Ptch2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dhh</t>
-  </si>
-  <si>
-    <t>Ptch2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H2">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I2">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J2">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.431002</v>
+        <v>3.503626</v>
       </c>
       <c r="N2">
-        <v>6.862004</v>
+        <v>7.007251999999999</v>
       </c>
       <c r="O2">
-        <v>0.315614070234469</v>
+        <v>0.3169831060911132</v>
       </c>
       <c r="P2">
-        <v>0.2467932984329498</v>
+        <v>0.2497807590538258</v>
       </c>
       <c r="Q2">
-        <v>19.023360423599</v>
+        <v>12.48713328156</v>
       </c>
       <c r="R2">
-        <v>76.09344169439601</v>
+        <v>49.94853312623999</v>
       </c>
       <c r="S2">
-        <v>0.1514796154483958</v>
+        <v>0.1914032452823367</v>
       </c>
       <c r="T2">
-        <v>0.1006577648113254</v>
+        <v>0.1451262776096929</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H3">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I3">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J3">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.07709</v>
       </c>
       <c r="O3">
-        <v>0.1250156630251893</v>
+        <v>0.122955347023628</v>
       </c>
       <c r="P3">
-        <v>0.1466333288508714</v>
+        <v>0.1453320980793559</v>
       </c>
       <c r="Q3">
-        <v>7.535209106985</v>
+        <v>4.8436644618</v>
       </c>
       <c r="R3">
-        <v>45.21125464191</v>
+        <v>29.0619867708</v>
       </c>
       <c r="S3">
-        <v>0.06000152194106369</v>
+        <v>0.0742438697612285</v>
       </c>
       <c r="T3">
-        <v>0.05980625577230889</v>
+        <v>0.08444007653495308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H4">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I4">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J4">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.120271333333333</v>
+        <v>0.314223</v>
       </c>
       <c r="N4">
-        <v>3.360814</v>
+        <v>0.942669</v>
       </c>
       <c r="O4">
-        <v>0.1030525179758942</v>
+        <v>0.02842865720977863</v>
       </c>
       <c r="P4">
-        <v>0.120872324248082</v>
+        <v>0.03360241337924067</v>
       </c>
       <c r="Q4">
-        <v>6.211399861097668</v>
+        <v>1.11990962538</v>
       </c>
       <c r="R4">
-        <v>37.268399166586</v>
+        <v>6.719457752279999</v>
       </c>
       <c r="S4">
-        <v>0.04946026576819104</v>
+        <v>0.0171660165617996</v>
       </c>
       <c r="T4">
-        <v>0.04929930457437939</v>
+        <v>0.0195234940869904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H5">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I5">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J5">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3769705</v>
+        <v>1.601875</v>
       </c>
       <c r="N5">
-        <v>2.753941</v>
+        <v>3.20375</v>
       </c>
       <c r="O5">
-        <v>0.1266659897306361</v>
+        <v>0.1449262315868481</v>
       </c>
       <c r="P5">
-        <v>0.09904601965835871</v>
+        <v>0.1142009887497545</v>
       </c>
       <c r="Q5">
-        <v>7.634681097289751</v>
+        <v>5.709178612500001</v>
       </c>
       <c r="R5">
-        <v>30.538724389159</v>
+        <v>22.83671445</v>
       </c>
       <c r="S5">
-        <v>0.0607935996026191</v>
+        <v>0.08751050298651827</v>
       </c>
       <c r="T5">
-        <v>0.0403971704887182</v>
+        <v>0.0663524462788057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H6">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I6">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J6">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.362270666666667</v>
+        <v>3.705586</v>
       </c>
       <c r="N6">
-        <v>7.086812</v>
+        <v>11.116758</v>
       </c>
       <c r="O6">
-        <v>0.2173026597192772</v>
+        <v>0.335255007288947</v>
       </c>
       <c r="P6">
-        <v>0.2548785615476484</v>
+        <v>0.3962683590454134</v>
       </c>
       <c r="Q6">
-        <v>13.09772664373133</v>
+        <v>13.20693083916</v>
       </c>
       <c r="R6">
-        <v>78.58635986238801</v>
+        <v>79.24158503496001</v>
       </c>
       <c r="S6">
-        <v>0.1042948538565971</v>
+        <v>0.2024363291266799</v>
       </c>
       <c r="T6">
-        <v>0.1039554415237995</v>
+        <v>0.2302377176713175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.5445495</v>
+        <v>3.56406</v>
       </c>
       <c r="H7">
-        <v>11.089099</v>
+        <v>7.12812</v>
       </c>
       <c r="I7">
-        <v>0.4799520355219333</v>
+        <v>0.6038279062964319</v>
       </c>
       <c r="J7">
-        <v>0.4078626342387197</v>
+        <v>0.5810146392357601</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.221333333333333</v>
+        <v>0.5686969999999999</v>
       </c>
       <c r="N7">
-        <v>3.664</v>
+        <v>1.706091</v>
       </c>
       <c r="O7">
-        <v>0.112349099314534</v>
+        <v>0.05145165079968518</v>
       </c>
       <c r="P7">
-        <v>0.1317764672620896</v>
+        <v>0.06081538169240962</v>
       </c>
       <c r="Q7">
-        <v>6.771743122666668</v>
+        <v>2.02687022982</v>
       </c>
       <c r="R7">
-        <v>40.63045873600001</v>
+        <v>12.16122137892</v>
       </c>
       <c r="S7">
-        <v>0.05392217890506645</v>
+        <v>0.03106794257786904</v>
       </c>
       <c r="T7">
-        <v>0.05374669706818828</v>
+        <v>0.03533462705400043</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.450645</v>
       </c>
       <c r="I8">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J8">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.431002</v>
+        <v>3.503626</v>
       </c>
       <c r="N8">
-        <v>6.862004</v>
+        <v>7.007251999999999</v>
       </c>
       <c r="O8">
-        <v>0.315614070234469</v>
+        <v>0.3169831060911132</v>
       </c>
       <c r="P8">
-        <v>0.2467932984329498</v>
+        <v>0.2497807590538258</v>
       </c>
       <c r="Q8">
-        <v>0.51538796543</v>
+        <v>0.5262971795899999</v>
       </c>
       <c r="R8">
-        <v>3.092327792579999</v>
+        <v>3.15778307754</v>
       </c>
       <c r="S8">
-        <v>0.004103942156992335</v>
+        <v>0.008067102823770139</v>
       </c>
       <c r="T8">
-        <v>0.004090586478071818</v>
+        <v>0.009174990232125733</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.450645</v>
       </c>
       <c r="I9">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J9">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.07709</v>
       </c>
       <c r="O9">
-        <v>0.1250156630251893</v>
+        <v>0.122955347023628</v>
       </c>
       <c r="P9">
-        <v>0.1466333288508714</v>
+        <v>0.1453320980793559</v>
       </c>
       <c r="Q9">
         <v>0.20414669145</v>
@@ -1013,10 +1013,10 @@
         <v>1.83732022305</v>
       </c>
       <c r="S9">
-        <v>0.001625583578679725</v>
+        <v>0.003129168110576965</v>
       </c>
       <c r="T9">
-        <v>0.00243044003236982</v>
+        <v>0.005338363872955833</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,40 +1045,40 @@
         <v>0.450645</v>
       </c>
       <c r="I10">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J10">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.120271333333333</v>
+        <v>0.314223</v>
       </c>
       <c r="N10">
-        <v>3.360814</v>
+        <v>0.942669</v>
       </c>
       <c r="O10">
-        <v>0.1030525179758942</v>
+        <v>0.02842865720977863</v>
       </c>
       <c r="P10">
-        <v>0.120872324248082</v>
+        <v>0.03360241337924067</v>
       </c>
       <c r="Q10">
-        <v>0.1682815583366667</v>
+        <v>0.04720100794499999</v>
       </c>
       <c r="R10">
-        <v>1.51453402503</v>
+        <v>0.424809071505</v>
       </c>
       <c r="S10">
-        <v>0.001339995940584319</v>
+        <v>0.0007234988125426413</v>
       </c>
       <c r="T10">
-        <v>0.002003452679962655</v>
+        <v>0.001234289685475524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>0.450645</v>
       </c>
       <c r="I11">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J11">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3769705</v>
+        <v>1.601875</v>
       </c>
       <c r="N11">
-        <v>2.753941</v>
+        <v>3.20375</v>
       </c>
       <c r="O11">
-        <v>0.1266659897306361</v>
+        <v>0.1449262315868481</v>
       </c>
       <c r="P11">
-        <v>0.09904601965835871</v>
+        <v>0.1142009887497545</v>
       </c>
       <c r="Q11">
-        <v>0.2068416236575</v>
+        <v>0.240625653125</v>
       </c>
       <c r="R11">
-        <v>1.241049741945</v>
+        <v>1.44375391875</v>
       </c>
       <c r="S11">
-        <v>0.001647042841678558</v>
+        <v>0.003688318997469135</v>
       </c>
       <c r="T11">
-        <v>0.001641682781882316</v>
+        <v>0.004194850557133213</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.450645</v>
       </c>
       <c r="I12">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J12">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.362270666666667</v>
+        <v>3.705586</v>
       </c>
       <c r="N12">
-        <v>7.086812</v>
+        <v>11.116758</v>
       </c>
       <c r="O12">
-        <v>0.2173026597192772</v>
+        <v>0.335255007288947</v>
       </c>
       <c r="P12">
-        <v>0.2548785615476484</v>
+        <v>0.3962683590454134</v>
       </c>
       <c r="Q12">
-        <v>0.3548484881933333</v>
+        <v>0.55663460099</v>
       </c>
       <c r="R12">
-        <v>3.19363639374</v>
+        <v>5.00971140891</v>
       </c>
       <c r="S12">
-        <v>0.002825595023016519</v>
+        <v>0.008532115951966077</v>
       </c>
       <c r="T12">
-        <v>0.00422459930653452</v>
+        <v>0.01455579820204919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.450645</v>
       </c>
       <c r="I13">
-        <v>0.01300303929398181</v>
+        <v>0.02544963018139945</v>
       </c>
       <c r="J13">
-        <v>0.01657494957944805</v>
+        <v>0.03673217371458381</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.221333333333333</v>
+        <v>0.5686969999999999</v>
       </c>
       <c r="N13">
-        <v>3.664</v>
+        <v>1.706091</v>
       </c>
       <c r="O13">
-        <v>0.112349099314534</v>
+        <v>0.05145165079968518</v>
       </c>
       <c r="P13">
-        <v>0.1317764672620896</v>
+        <v>0.06081538169240962</v>
       </c>
       <c r="Q13">
-        <v>0.1834625866666666</v>
+        <v>0.08542681985499997</v>
       </c>
       <c r="R13">
-        <v>1.65116328</v>
+        <v>0.7688413786949998</v>
       </c>
       <c r="S13">
-        <v>0.001460879753030351</v>
+        <v>0.001309425485074493</v>
       </c>
       <c r="T13">
-        <v>0.002184188300626922</v>
+        <v>0.00223388116484431</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H14">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I14">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J14">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.431002</v>
+        <v>3.503626</v>
       </c>
       <c r="N14">
-        <v>6.862004</v>
+        <v>7.007251999999999</v>
       </c>
       <c r="O14">
-        <v>0.315614070234469</v>
+        <v>0.3169831060911132</v>
       </c>
       <c r="P14">
-        <v>0.2467932984329498</v>
+        <v>0.2497807590538258</v>
       </c>
       <c r="Q14">
-        <v>0.7776720569873333</v>
+        <v>6.568843278619999</v>
       </c>
       <c r="R14">
-        <v>4.666032341924001</v>
+        <v>26.27537311448</v>
       </c>
       <c r="S14">
-        <v>0.006192463450950983</v>
+        <v>0.1006874750937118</v>
       </c>
       <c r="T14">
-        <v>0.006172310985245046</v>
+        <v>0.0763435251095899</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H15">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I15">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J15">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.07709</v>
       </c>
       <c r="O15">
-        <v>0.1250156630251893</v>
+        <v>0.122955347023628</v>
       </c>
       <c r="P15">
-        <v>0.1466333288508714</v>
+        <v>0.1453320980793559</v>
       </c>
       <c r="Q15">
-        <v>0.30803819281</v>
+        <v>2.5480045761</v>
       </c>
       <c r="R15">
-        <v>2.77234373529</v>
+        <v>15.2880274566</v>
       </c>
       <c r="S15">
-        <v>0.002452853016041937</v>
+        <v>0.03905590929985311</v>
       </c>
       <c r="T15">
-        <v>0.003667305847509375</v>
+        <v>0.04441961310782857</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.87487</v>
+      </c>
+      <c r="H16">
+        <v>3.74974</v>
+      </c>
+      <c r="I16">
+        <v>0.3176430325746456</v>
+      </c>
+      <c r="J16">
+        <v>0.3056421375240455</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.2266603333333334</v>
-      </c>
-      <c r="H16">
-        <v>0.6799810000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.0196203656140888</v>
-      </c>
-      <c r="J16">
-        <v>0.025010042916226</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>1.120271333333333</v>
+        <v>0.314223</v>
       </c>
       <c r="N16">
-        <v>3.360814</v>
+        <v>0.942669</v>
       </c>
       <c r="O16">
-        <v>0.1030525179758942</v>
+        <v>0.02842865720977863</v>
       </c>
       <c r="P16">
-        <v>0.120872324248082</v>
+        <v>0.03360241337924067</v>
       </c>
       <c r="Q16">
-        <v>0.2539210738371112</v>
+        <v>0.5891272760099999</v>
       </c>
       <c r="R16">
-        <v>2.285289664534</v>
+        <v>3.53476365606</v>
       </c>
       <c r="S16">
-        <v>0.002021928080139502</v>
+        <v>0.009030164888139148</v>
       </c>
       <c r="T16">
-        <v>0.003023022016828516</v>
+        <v>0.0102703134511977</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H17">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I17">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J17">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.3769705</v>
+        <v>1.601875</v>
       </c>
       <c r="N17">
-        <v>2.753941</v>
+        <v>3.20375</v>
       </c>
       <c r="O17">
-        <v>0.1266659897306361</v>
+        <v>0.1449262315868481</v>
       </c>
       <c r="P17">
-        <v>0.09904601965835871</v>
+        <v>0.1142009887497545</v>
       </c>
       <c r="Q17">
-        <v>0.3121045925201667</v>
+        <v>3.00330738125</v>
       </c>
       <c r="R17">
-        <v>1.872627555121</v>
+        <v>12.013229525</v>
       </c>
       <c r="S17">
-        <v>0.002485233029385497</v>
+        <v>0.04603480770086181</v>
       </c>
       <c r="T17">
-        <v>0.002477145202336916</v>
+        <v>0.03490463430883443</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H18">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I18">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J18">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.362270666666667</v>
+        <v>3.705586</v>
       </c>
       <c r="N18">
-        <v>7.086812</v>
+        <v>11.116758</v>
       </c>
       <c r="O18">
-        <v>0.2173026597192772</v>
+        <v>0.335255007288947</v>
       </c>
       <c r="P18">
-        <v>0.2548785615476484</v>
+        <v>0.3962683590454134</v>
       </c>
       <c r="Q18">
-        <v>0.5354330567302223</v>
+        <v>6.947492023820001</v>
       </c>
       <c r="R18">
-        <v>4.818897510572</v>
+        <v>41.68495214292</v>
       </c>
       <c r="S18">
-        <v>0.004263557632606145</v>
+        <v>0.106491417201096</v>
       </c>
       <c r="T18">
-        <v>0.006374523762732638</v>
+        <v>0.1211163082917861</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2266603333333334</v>
+        <v>1.87487</v>
       </c>
       <c r="H19">
-        <v>0.6799810000000001</v>
+        <v>3.74974</v>
       </c>
       <c r="I19">
-        <v>0.0196203656140888</v>
+        <v>0.3176430325746456</v>
       </c>
       <c r="J19">
-        <v>0.025010042916226</v>
+        <v>0.3056421375240455</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.221333333333333</v>
+        <v>0.5686969999999999</v>
       </c>
       <c r="N19">
-        <v>3.664</v>
+        <v>1.706091</v>
       </c>
       <c r="O19">
-        <v>0.112349099314534</v>
+        <v>0.05145165079968518</v>
       </c>
       <c r="P19">
-        <v>0.1317764672620896</v>
+        <v>0.06081538169240962</v>
       </c>
       <c r="Q19">
-        <v>0.2768278204444445</v>
+        <v>1.06623294439</v>
       </c>
       <c r="R19">
-        <v>2.491450384</v>
+        <v>6.397397666339999</v>
       </c>
       <c r="S19">
-        <v>0.002204330404964731</v>
+        <v>0.01634325839098369</v>
       </c>
       <c r="T19">
-        <v>0.003295735101573512</v>
+        <v>0.01858774325480878</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,19 +1656,19 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H20">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I20">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J20">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.431002</v>
+        <v>3.503626</v>
       </c>
       <c r="N20">
-        <v>6.862004</v>
+        <v>7.007251999999999</v>
       </c>
       <c r="O20">
-        <v>0.315614070234469</v>
+        <v>0.3169831060911132</v>
       </c>
       <c r="P20">
-        <v>0.2467932984329498</v>
+        <v>0.2497807590538258</v>
       </c>
       <c r="Q20">
-        <v>6.60135077806</v>
+        <v>0.9121807078533333</v>
       </c>
       <c r="R20">
-        <v>26.40540311224</v>
+        <v>5.473084247119999</v>
       </c>
       <c r="S20">
-        <v>0.05256537515106989</v>
+        <v>0.01398193995613821</v>
       </c>
       <c r="T20">
-        <v>0.03492953922224599</v>
+        <v>0.01590213554062316</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,19 +1718,19 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H21">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I21">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J21">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.07709</v>
       </c>
       <c r="O21">
-        <v>0.1250156630251893</v>
+        <v>0.122955347023628</v>
       </c>
       <c r="P21">
-        <v>0.1466333288508714</v>
+        <v>0.1453320980793559</v>
       </c>
       <c r="Q21">
-        <v>2.6148144909</v>
+        <v>0.3538279906</v>
       </c>
       <c r="R21">
-        <v>15.6888869454</v>
+        <v>3.1844519154</v>
       </c>
       <c r="S21">
-        <v>0.02082129995597744</v>
+        <v>0.005423488653923254</v>
       </c>
       <c r="T21">
-        <v>0.02075354008357135</v>
+        <v>0.009252476975470455</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H22">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I22">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J22">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.120271333333333</v>
+        <v>0.314223</v>
       </c>
       <c r="N22">
-        <v>3.360814</v>
+        <v>0.942669</v>
       </c>
       <c r="O22">
-        <v>0.1030525179758942</v>
+        <v>0.02842865720977863</v>
       </c>
       <c r="P22">
-        <v>0.120872324248082</v>
+        <v>0.03360241337924067</v>
       </c>
       <c r="Q22">
-        <v>2.155435653473333</v>
+        <v>0.08180900545999999</v>
       </c>
       <c r="R22">
-        <v>12.93261392084</v>
+        <v>0.7362810491399999</v>
       </c>
       <c r="S22">
-        <v>0.01716334846428418</v>
+        <v>0.001253971490917586</v>
       </c>
       <c r="T22">
-        <v>0.01710749285947274</v>
+        <v>0.002139276596295338</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H23">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I23">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J23">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.3769705</v>
+        <v>1.601875</v>
       </c>
       <c r="N23">
-        <v>2.753941</v>
+        <v>3.20375</v>
       </c>
       <c r="O23">
-        <v>0.1266659897306361</v>
+        <v>0.1449262315868481</v>
       </c>
       <c r="P23">
-        <v>0.09904601965835871</v>
+        <v>0.1142009887497545</v>
       </c>
       <c r="Q23">
-        <v>2.649332551115001</v>
+        <v>0.4170534958333333</v>
       </c>
       <c r="R23">
-        <v>10.59733020446</v>
+        <v>2.502320975</v>
       </c>
       <c r="S23">
-        <v>0.02109616109359782</v>
+        <v>0.006392611559349915</v>
       </c>
       <c r="T23">
-        <v>0.01401833781723988</v>
+        <v>0.007270534403254153</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H24">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I24">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J24">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.362270666666667</v>
+        <v>3.705586</v>
       </c>
       <c r="N24">
-        <v>7.086812</v>
+        <v>11.116758</v>
       </c>
       <c r="O24">
-        <v>0.2173026597192772</v>
+        <v>0.335255007288947</v>
       </c>
       <c r="P24">
-        <v>0.2548785615476484</v>
+        <v>0.3962683590454134</v>
       </c>
       <c r="Q24">
-        <v>4.545079630786668</v>
+        <v>0.9647616670533333</v>
       </c>
       <c r="R24">
-        <v>27.27047778472</v>
+        <v>8.68285500348</v>
       </c>
       <c r="S24">
-        <v>0.03619165590742918</v>
+        <v>0.01478790286243634</v>
       </c>
       <c r="T24">
-        <v>0.03607387546184519</v>
+        <v>0.02522817682142827</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.92403</v>
+        <v>0.2603533333333333</v>
       </c>
       <c r="H25">
-        <v>3.84806</v>
+        <v>0.78106</v>
       </c>
       <c r="I25">
-        <v>0.1665495302919137</v>
+        <v>0.04410941683472324</v>
       </c>
       <c r="J25">
-        <v>0.1415335807091855</v>
+        <v>0.06366437351243846</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.221333333333333</v>
+        <v>0.5686969999999999</v>
       </c>
       <c r="N25">
-        <v>3.664</v>
+        <v>1.706091</v>
       </c>
       <c r="O25">
-        <v>0.112349099314534</v>
+        <v>0.05145165079968518</v>
       </c>
       <c r="P25">
-        <v>0.1317764672620896</v>
+        <v>0.06081538169240962</v>
       </c>
       <c r="Q25">
-        <v>2.349881973333333</v>
+        <v>0.1480621596066666</v>
       </c>
       <c r="R25">
-        <v>14.09929184</v>
+        <v>1.33255943646</v>
       </c>
       <c r="S25">
-        <v>0.01871168971955521</v>
+        <v>0.002269502311957935</v>
       </c>
       <c r="T25">
-        <v>0.01865079526481029</v>
+        <v>0.003871773175367078</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H26">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I26">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J26">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.431002</v>
+        <v>3.503626</v>
       </c>
       <c r="N26">
-        <v>6.862004</v>
+        <v>7.007251999999999</v>
       </c>
       <c r="O26">
-        <v>0.315614070234469</v>
+        <v>0.3169831060911132</v>
       </c>
       <c r="P26">
-        <v>0.2467932984329498</v>
+        <v>0.2497807590538258</v>
       </c>
       <c r="Q26">
-        <v>11.058863973434</v>
+        <v>0.18549947857</v>
       </c>
       <c r="R26">
-        <v>66.353183840604</v>
+        <v>1.11299687142</v>
       </c>
       <c r="S26">
-        <v>0.08805975520044181</v>
+        <v>0.002843342935156343</v>
       </c>
       <c r="T26">
-        <v>0.08777317761935369</v>
+        <v>0.003233830561794075</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H27">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I27">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J27">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.07709</v>
       </c>
       <c r="O27">
-        <v>0.1250156630251893</v>
+        <v>0.122955347023628</v>
       </c>
       <c r="P27">
-        <v>0.1466333288508714</v>
+        <v>0.1453320980793559</v>
       </c>
       <c r="Q27">
-        <v>4.38044859951</v>
+        <v>0.07195384334999999</v>
       </c>
       <c r="R27">
-        <v>39.42403739559001</v>
+        <v>0.64758459015</v>
       </c>
       <c r="S27">
-        <v>0.03488072846068188</v>
+        <v>0.001102911198046117</v>
       </c>
       <c r="T27">
-        <v>0.05215082135482445</v>
+        <v>0.001881567588147965</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H28">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I28">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J28">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>1.120271333333333</v>
+        <v>0.314223</v>
       </c>
       <c r="N28">
-        <v>3.360814</v>
+        <v>0.942669</v>
       </c>
       <c r="O28">
-        <v>0.1030525179758942</v>
+        <v>0.02842865720977863</v>
       </c>
       <c r="P28">
-        <v>0.120872324248082</v>
+        <v>0.03360241337924067</v>
       </c>
       <c r="Q28">
-        <v>3.610877606212668</v>
+        <v>0.016636536735</v>
       </c>
       <c r="R28">
-        <v>32.497898455914</v>
+        <v>0.149728830615</v>
       </c>
       <c r="S28">
-        <v>0.02875277233047544</v>
+        <v>0.0002550054563796568</v>
       </c>
       <c r="T28">
-        <v>0.04298880096362674</v>
+        <v>0.0004350395592817069</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H29">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I29">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J29">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.3769705</v>
+        <v>1.601875</v>
       </c>
       <c r="N29">
-        <v>2.753941</v>
+        <v>3.20375</v>
       </c>
       <c r="O29">
-        <v>0.1266659897306361</v>
+        <v>0.1449262315868481</v>
       </c>
       <c r="P29">
-        <v>0.09904601965835871</v>
+        <v>0.1142009887497545</v>
       </c>
       <c r="Q29">
-        <v>4.438274724098501</v>
+        <v>0.08481127187500001</v>
       </c>
       <c r="R29">
-        <v>26.62964834459101</v>
+        <v>0.5088676312500001</v>
       </c>
       <c r="S29">
-        <v>0.03534118754469685</v>
+        <v>0.001299990342648892</v>
       </c>
       <c r="T29">
-        <v>0.03522617482388826</v>
+        <v>0.001478523201726978</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H30">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I30">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J30">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.362270666666667</v>
+        <v>3.705586</v>
       </c>
       <c r="N30">
-        <v>7.086812</v>
+        <v>11.116758</v>
       </c>
       <c r="O30">
-        <v>0.2173026597192772</v>
+        <v>0.335255007288947</v>
       </c>
       <c r="P30">
-        <v>0.2548785615476484</v>
+        <v>0.3962683590454134</v>
       </c>
       <c r="Q30">
-        <v>7.614110971401335</v>
+        <v>0.19619225077</v>
       </c>
       <c r="R30">
-        <v>68.52699874261201</v>
+        <v>1.76573025693</v>
       </c>
       <c r="S30">
-        <v>0.06062980337051718</v>
+        <v>0.003007242146768591</v>
       </c>
       <c r="T30">
-        <v>0.09064873882774875</v>
+        <v>0.005130358058832304</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>3.223217</v>
+        <v>0.052945</v>
       </c>
       <c r="H31">
-        <v>9.669651000000002</v>
+        <v>0.158835</v>
       </c>
       <c r="I31">
-        <v>0.2790108664516205</v>
+        <v>0.008970014112799614</v>
       </c>
       <c r="J31">
-        <v>0.3556546234305484</v>
+        <v>0.01294667601317205</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.221333333333333</v>
+        <v>0.5686969999999999</v>
       </c>
       <c r="N31">
-        <v>3.664</v>
+        <v>1.706091</v>
       </c>
       <c r="O31">
-        <v>0.112349099314534</v>
+        <v>0.05145165079968518</v>
       </c>
       <c r="P31">
-        <v>0.1317764672620896</v>
+        <v>0.06081538169240962</v>
       </c>
       <c r="Q31">
-        <v>3.936622362666667</v>
+        <v>0.03010966266499999</v>
       </c>
       <c r="R31">
-        <v>35.42960126400001</v>
+        <v>0.270986963985</v>
       </c>
       <c r="S31">
-        <v>0.0313466195448073</v>
+        <v>0.0004615220338000136</v>
       </c>
       <c r="T31">
-        <v>0.04686690984110647</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H32">
-        <v>1.450882</v>
-      </c>
-      <c r="I32">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J32">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3.431002</v>
-      </c>
-      <c r="N32">
-        <v>6.862004</v>
-      </c>
-      <c r="O32">
-        <v>0.315614070234469</v>
-      </c>
-      <c r="P32">
-        <v>0.2467932984329498</v>
-      </c>
-      <c r="Q32">
-        <v>1.659326347921333</v>
-      </c>
-      <c r="R32">
-        <v>9.955958087528</v>
-      </c>
-      <c r="S32">
-        <v>0.01321291882661819</v>
-      </c>
-      <c r="T32">
-        <v>0.01316991931670782</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H33">
-        <v>1.450882</v>
-      </c>
-      <c r="I33">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J33">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.35903</v>
-      </c>
-      <c r="N33">
-        <v>4.07709</v>
-      </c>
-      <c r="O33">
-        <v>0.1250156630251893</v>
-      </c>
-      <c r="P33">
-        <v>0.1466333288508714</v>
-      </c>
-      <c r="Q33">
-        <v>0.6572640548200001</v>
-      </c>
-      <c r="R33">
-        <v>5.91537649338</v>
-      </c>
-      <c r="S33">
-        <v>0.005233676072744615</v>
-      </c>
-      <c r="T33">
-        <v>0.007824965760287564</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H34">
-        <v>1.450882</v>
-      </c>
-      <c r="I34">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J34">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1.120271333333333</v>
-      </c>
-      <c r="N34">
-        <v>3.360814</v>
-      </c>
-      <c r="O34">
-        <v>0.1030525179758942</v>
-      </c>
-      <c r="P34">
-        <v>0.120872324248082</v>
-      </c>
-      <c r="Q34">
-        <v>0.5417938375497778</v>
-      </c>
-      <c r="R34">
-        <v>4.876144537948</v>
-      </c>
-      <c r="S34">
-        <v>0.004314207392219726</v>
-      </c>
-      <c r="T34">
-        <v>0.006450251153811931</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H35">
-        <v>1.450882</v>
-      </c>
-      <c r="I35">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J35">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.3769705</v>
-      </c>
-      <c r="N35">
-        <v>2.753941</v>
-      </c>
-      <c r="O35">
-        <v>0.1266659897306361</v>
-      </c>
-      <c r="P35">
-        <v>0.09904601965835871</v>
-      </c>
-      <c r="Q35">
-        <v>0.6659405709936668</v>
-      </c>
-      <c r="R35">
-        <v>3.995643425962</v>
-      </c>
-      <c r="S35">
-        <v>0.0053027656186583</v>
-      </c>
-      <c r="T35">
-        <v>0.005285508544293134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H36">
-        <v>1.450882</v>
-      </c>
-      <c r="I36">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J36">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2.362270666666667</v>
-      </c>
-      <c r="N36">
-        <v>7.086812</v>
-      </c>
-      <c r="O36">
-        <v>0.2173026597192772</v>
-      </c>
-      <c r="P36">
-        <v>0.2548785615476484</v>
-      </c>
-      <c r="Q36">
-        <v>1.142458663131556</v>
-      </c>
-      <c r="R36">
-        <v>10.282127968184</v>
-      </c>
-      <c r="S36">
-        <v>0.009097193929111061</v>
-      </c>
-      <c r="T36">
-        <v>0.01360138266498778</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.4836273333333334</v>
-      </c>
-      <c r="H37">
-        <v>1.450882</v>
-      </c>
-      <c r="I37">
-        <v>0.04186416282646189</v>
-      </c>
-      <c r="J37">
-        <v>0.05336416912587236</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1.221333333333333</v>
-      </c>
-      <c r="N37">
-        <v>3.664</v>
-      </c>
-      <c r="O37">
-        <v>0.112349099314534</v>
-      </c>
-      <c r="P37">
-        <v>0.1317764672620896</v>
-      </c>
-      <c r="Q37">
-        <v>0.5906701831111112</v>
-      </c>
-      <c r="R37">
-        <v>5.316031648</v>
-      </c>
-      <c r="S37">
-        <v>0.00470340098710999</v>
-      </c>
-      <c r="T37">
-        <v>0.007032141685784133</v>
+        <v>0.0007873570433890224</v>
       </c>
     </row>
   </sheetData>
